--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Dev\Papers\SFC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF7651-3FE4-4E7C-AEA1-A411A34C2CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA79C751-C653-4A68-A6CD-32D8C0DF73A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Project</t>
   </si>
@@ -145,6 +145,60 @@
   </si>
   <si>
     <t>vulture</t>
+  </si>
+  <si>
+    <t>matrixprofile-ts</t>
+  </si>
+  <si>
+    <t>libcst</t>
+  </si>
+  <si>
+    <t>gitsome</t>
+  </si>
+  <si>
+    <t>autorank</t>
+  </si>
+  <si>
+    <t>yapf</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>tablib</t>
+  </si>
+  <si>
+    <t>marshmallow</t>
+  </si>
+  <si>
+    <t>tinydb</t>
+  </si>
+  <si>
+    <t>Syntax Tree Parser</t>
+  </si>
+  <si>
+    <t>Git Command-line Interface</t>
+  </si>
+  <si>
+    <t>Python Formatter</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>Tabular Dataset</t>
+  </si>
+  <si>
+    <t>Object Converter</t>
+  </si>
+  <si>
+    <t>Pattern Detector</t>
+  </si>
+  <si>
+    <t>Classifier Ranker</t>
+  </si>
+  <si>
+    <t>Document Oriented Database</t>
   </si>
 </sst>
 </file>
@@ -462,19 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="13" max="13" width="22.26953125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -556,501 +610,843 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>6338</v>
+      </c>
+      <c r="G3">
+        <v>21449</v>
+      </c>
+      <c r="H3">
+        <v>5177</v>
+      </c>
+      <c r="J3">
+        <v>1685</v>
+      </c>
+      <c r="K3">
+        <v>483</v>
+      </c>
+      <c r="L3">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2595</v>
+      </c>
+      <c r="G4">
+        <v>5868</v>
+      </c>
+      <c r="H4">
+        <v>1422</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+      <c r="K4">
+        <v>1015</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>82</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>61</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>52</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>1403</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>4581</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>1136</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>570</v>
       </c>
-      <c r="J3">
+      <c r="J5">
         <v>252</v>
       </c>
-      <c r="K3">
+      <c r="K5">
         <v>222</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>68</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>98</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>98</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>60</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>2151</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>4168</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>1662</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>425</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>1642</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>703</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>68</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>2693</v>
+      </c>
+      <c r="G7">
+        <v>3508</v>
+      </c>
+      <c r="H7">
+        <v>1868</v>
+      </c>
+      <c r="J7">
+        <v>593</v>
+      </c>
+      <c r="K7">
+        <v>1101</v>
+      </c>
+      <c r="L7">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>97</v>
+      </c>
+      <c r="D8">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>1555</v>
+      </c>
+      <c r="G8">
+        <v>2881</v>
+      </c>
+      <c r="H8">
+        <v>1076</v>
+      </c>
+      <c r="J8">
+        <v>497</v>
+      </c>
+      <c r="K8">
+        <v>1429</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>49</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>90</v>
       </c>
-      <c r="D5">
+      <c r="D9">
         <v>81</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>1393</v>
       </c>
-      <c r="G5">
+      <c r="G9">
         <v>2838</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>977</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>342</v>
       </c>
-      <c r="J5">
+      <c r="J9">
         <v>532</v>
       </c>
-      <c r="K5">
+      <c r="K9">
         <v>3841</v>
       </c>
-      <c r="L5">
+      <c r="L9">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C10">
         <v>81</v>
       </c>
-      <c r="D6">
+      <c r="D10">
         <v>66</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>39</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>919</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>1967</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>633</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>210</v>
       </c>
-      <c r="J6">
+      <c r="J10">
         <v>211</v>
       </c>
-      <c r="K6">
+      <c r="K10">
         <v>1637</v>
       </c>
-      <c r="L6">
+      <c r="L10">
         <v>35</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>46</v>
       </c>
-      <c r="C7">
+      <c r="C11">
         <v>92</v>
       </c>
-      <c r="D7">
+      <c r="D11">
         <v>83</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>49</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>624</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <v>1740</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>509</v>
       </c>
-      <c r="I7">
+      <c r="I11">
         <v>173</v>
       </c>
-      <c r="J7">
+      <c r="J11">
         <v>266</v>
       </c>
-      <c r="K7">
+      <c r="K11">
         <v>1148</v>
       </c>
-      <c r="L7">
+      <c r="L11">
         <v>35</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>654</v>
+      </c>
+      <c r="G12">
+        <v>1710</v>
+      </c>
+      <c r="H12">
+        <v>653</v>
+      </c>
+      <c r="J12">
+        <v>126</v>
+      </c>
+      <c r="K12">
+        <v>1108</v>
+      </c>
+      <c r="L12">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>97</v>
+      </c>
+      <c r="D13">
+        <v>96</v>
+      </c>
+      <c r="E13">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>836</v>
+      </c>
+      <c r="G13">
+        <v>1701</v>
+      </c>
+      <c r="H13">
+        <v>623</v>
+      </c>
+      <c r="J13">
+        <v>949</v>
+      </c>
+      <c r="K13">
+        <v>2827</v>
+      </c>
+      <c r="L13">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
+      <c r="B14">
         <v>53</v>
       </c>
-      <c r="C8">
+      <c r="C14">
         <v>93</v>
-      </c>
-      <c r="D8">
-        <v>88</v>
-      </c>
-      <c r="E8">
-        <v>44</v>
-      </c>
-      <c r="F8">
-        <v>354</v>
-      </c>
-      <c r="G8">
-        <v>1012</v>
-      </c>
-      <c r="H8">
-        <v>282</v>
-      </c>
-      <c r="I8">
-        <v>109</v>
-      </c>
-      <c r="J8">
-        <v>150</v>
-      </c>
-      <c r="K8">
-        <v>388</v>
-      </c>
-      <c r="L8">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>66</v>
-      </c>
-      <c r="C9">
-        <v>98</v>
-      </c>
-      <c r="D9">
-        <v>96</v>
-      </c>
-      <c r="E9">
-        <v>78</v>
-      </c>
-      <c r="F9">
-        <v>376</v>
-      </c>
-      <c r="G9">
-        <v>860</v>
-      </c>
-      <c r="H9">
-        <v>322</v>
-      </c>
-      <c r="I9">
-        <v>116</v>
-      </c>
-      <c r="J9">
-        <v>170</v>
-      </c>
-      <c r="K9">
-        <v>524</v>
-      </c>
-      <c r="L9">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>67</v>
-      </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-      <c r="D10">
-        <v>97</v>
-      </c>
-      <c r="E10">
-        <v>70</v>
-      </c>
-      <c r="F10">
-        <v>225</v>
-      </c>
-      <c r="G10">
-        <v>803</v>
-      </c>
-      <c r="H10">
-        <v>237</v>
-      </c>
-      <c r="I10">
-        <v>57</v>
-      </c>
-      <c r="J10">
-        <v>268</v>
-      </c>
-      <c r="K10">
-        <v>2598</v>
-      </c>
-      <c r="L10">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>66</v>
-      </c>
-      <c r="C11">
-        <v>97</v>
-      </c>
-      <c r="D11">
-        <v>93</v>
-      </c>
-      <c r="E11">
-        <v>70</v>
-      </c>
-      <c r="F11">
-        <v>136</v>
-      </c>
-      <c r="G11">
-        <v>551</v>
-      </c>
-      <c r="H11">
-        <v>156</v>
-      </c>
-      <c r="I11">
-        <v>64</v>
-      </c>
-      <c r="J11">
-        <v>189</v>
-      </c>
-      <c r="K11">
-        <v>582</v>
-      </c>
-      <c r="L11">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>58</v>
-      </c>
-      <c r="F12">
-        <v>168</v>
-      </c>
-      <c r="G12">
-        <v>461</v>
-      </c>
-      <c r="H12">
-        <v>159</v>
-      </c>
-      <c r="I12">
-        <v>49</v>
-      </c>
-      <c r="J12">
-        <v>71</v>
-      </c>
-      <c r="K12">
-        <v>252</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>92</v>
-      </c>
-      <c r="D13">
-        <v>91</v>
-      </c>
-      <c r="E13">
-        <v>71</v>
-      </c>
-      <c r="F13">
-        <v>177</v>
-      </c>
-      <c r="G13">
-        <v>270</v>
-      </c>
-      <c r="H13">
-        <v>148</v>
-      </c>
-      <c r="I13">
-        <v>25</v>
-      </c>
-      <c r="J13">
-        <v>59</v>
-      </c>
-      <c r="K13">
-        <v>131</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>68</v>
-      </c>
-      <c r="C14">
-        <v>96</v>
       </c>
       <c r="D14">
         <v>88</v>
       </c>
       <c r="E14">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>354</v>
+      </c>
+      <c r="G14">
+        <v>1012</v>
+      </c>
+      <c r="H14">
+        <v>282</v>
+      </c>
+      <c r="I14">
+        <v>109</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14">
+        <v>388</v>
+      </c>
+      <c r="L14">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>98</v>
+      </c>
+      <c r="D15">
+        <v>96</v>
+      </c>
+      <c r="E15">
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>376</v>
+      </c>
+      <c r="G15">
+        <v>860</v>
+      </c>
+      <c r="H15">
+        <v>322</v>
+      </c>
+      <c r="I15">
+        <v>116</v>
+      </c>
+      <c r="J15">
+        <v>170</v>
+      </c>
+      <c r="K15">
+        <v>524</v>
+      </c>
+      <c r="L15">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>803</v>
+      </c>
+      <c r="H16">
+        <v>237</v>
+      </c>
+      <c r="I16">
+        <v>57</v>
+      </c>
+      <c r="J16">
+        <v>268</v>
+      </c>
+      <c r="K16">
+        <v>2598</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>475</v>
+      </c>
+      <c r="G17">
+        <v>675</v>
+      </c>
+      <c r="H17">
+        <v>158</v>
+      </c>
+      <c r="J17">
+        <v>89</v>
+      </c>
+      <c r="K17">
+        <v>198</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>97</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>136</v>
+      </c>
+      <c r="G18">
+        <v>551</v>
+      </c>
+      <c r="H18">
+        <v>156</v>
+      </c>
+      <c r="I18">
+        <v>64</v>
+      </c>
+      <c r="J18">
+        <v>189</v>
+      </c>
+      <c r="K18">
+        <v>582</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>480</v>
+      </c>
+      <c r="G19">
+        <v>539</v>
+      </c>
+      <c r="H19">
+        <v>268</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>128</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>69</v>
+      </c>
+      <c r="F20">
+        <v>183</v>
+      </c>
+      <c r="G20">
+        <v>517</v>
+      </c>
+      <c r="H20">
+        <v>173</v>
+      </c>
+      <c r="J20">
+        <v>119</v>
+      </c>
+      <c r="K20">
+        <v>573</v>
+      </c>
+      <c r="L20">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <v>168</v>
+      </c>
+      <c r="G21">
+        <v>461</v>
+      </c>
+      <c r="H21">
+        <v>159</v>
+      </c>
+      <c r="I21">
+        <v>49</v>
+      </c>
+      <c r="J21">
+        <v>71</v>
+      </c>
+      <c r="K21">
+        <v>252</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>91</v>
+      </c>
+      <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>177</v>
+      </c>
+      <c r="G22">
+        <v>270</v>
+      </c>
+      <c r="H22">
+        <v>148</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>131</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>68</v>
+      </c>
+      <c r="C23">
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <v>88</v>
+      </c>
+      <c r="E23">
         <v>63</v>
       </c>
-      <c r="F14">
+      <c r="F23">
         <v>52</v>
       </c>
-      <c r="G14">
+      <c r="G23">
         <v>133</v>
       </c>
-      <c r="H14">
+      <c r="H23">
         <v>34</v>
       </c>
-      <c r="I14">
+      <c r="I23">
         <v>23</v>
       </c>
-      <c r="J14">
+      <c r="J23">
         <v>46</v>
       </c>
-      <c r="K14">
+      <c r="K23">
         <v>148</v>
       </c>
-      <c r="L14">
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M23" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M14">
-    <sortCondition descending="1" ref="G2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M23">
+    <sortCondition descending="1" ref="G1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
